--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C92201-C992-447A-9C59-948888620881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E0115-281D-4F85-8C49-EA9542F80210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="两晋" sheetId="1" r:id="rId1"/>
@@ -372,88 +372,80 @@
     <t>苻生</t>
   </si>
   <si>
+    <t>越厉王</t>
+  </si>
+  <si>
+    <t>平皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景昭皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景明皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世祖</t>
+  </si>
+  <si>
+    <t>秦宣昭帝</t>
+  </si>
+  <si>
+    <t>景昭帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻丕</t>
+  </si>
+  <si>
+    <t>哀平皇帝</t>
+  </si>
+  <si>
+    <t>秦哀平帝</t>
+  </si>
+  <si>
+    <t>苻登</t>
+  </si>
+  <si>
+    <t>高皇帝</t>
+  </si>
+  <si>
+    <t>太宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦高帝</t>
+  </si>
+  <si>
+    <t>苻崇</t>
+  </si>
+  <si>
+    <t>宣昭皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>厉</t>
+      <t>厉王</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越厉王</t>
-  </si>
-  <si>
-    <t>平皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景昭皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景明皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苻坚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣昭皇帝</t>
-  </si>
-  <si>
-    <t>世祖</t>
-  </si>
-  <si>
-    <t>秦宣昭帝</t>
-  </si>
-  <si>
-    <t>景昭帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苻丕</t>
-  </si>
-  <si>
-    <t>哀平皇帝</t>
-  </si>
-  <si>
-    <t>秦哀平帝</t>
-  </si>
-  <si>
-    <t>苻登</t>
-  </si>
-  <si>
-    <t>高皇帝</t>
-  </si>
-  <si>
-    <t>太宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦高帝</t>
-  </si>
-  <si>
-    <t>苻崇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,17 +469,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,8 +504,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1155,7 +1150,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1402,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14">
         <v>350</v>
@@ -1424,13 +1419,13 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15">
         <v>352</v>
@@ -1447,7 +1442,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>360</v>
@@ -1470,7 +1465,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>351</v>
@@ -1479,7 +1474,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1487,10 +1482,10 @@
         <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
         <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F18">
         <v>355</v>
@@ -1504,16 +1499,16 @@
         <v>93</v>
       </c>
       <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
-      </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F19">
         <v>357</v>
@@ -1527,13 +1522,13 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F20">
         <v>385</v>
@@ -1547,16 +1542,16 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>386</v>
@@ -1570,7 +1565,7 @@
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>394</v>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E0115-281D-4F85-8C49-EA9542F80210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAFE09E-7CB1-4F40-B1E8-7665F643FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1750" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="两晋" sheetId="1" r:id="rId1"/>
-    <sheet name="十六国" sheetId="2" r:id="rId2"/>
+    <sheet name="东西汉三国" sheetId="3" r:id="rId1"/>
+    <sheet name="两晋" sheetId="1" r:id="rId2"/>
+    <sheet name="十六国" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="253">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +446,460 @@
       </rPr>
       <t>厉王</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘邦</t>
+  </si>
+  <si>
+    <t>汉高祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉惠帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孝惠皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘恭</t>
+  </si>
+  <si>
+    <t>前少帝</t>
+  </si>
+  <si>
+    <t>刘弘</t>
+  </si>
+  <si>
+    <t>后少帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘恒</t>
+  </si>
+  <si>
+    <t>汉文帝</t>
+  </si>
+  <si>
+    <t>孝文皇帝</t>
+  </si>
+  <si>
+    <t>刘启</t>
+  </si>
+  <si>
+    <t>汉景帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孝景皇帝</t>
+  </si>
+  <si>
+    <t>刘彻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉武帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孝武皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘弗陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉昭帝</t>
+  </si>
+  <si>
+    <t>孝昭皇帝</t>
+  </si>
+  <si>
+    <t>西汉废帝</t>
+  </si>
+  <si>
+    <t>刘贺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘询</t>
+  </si>
+  <si>
+    <t>孝宣皇帝</t>
+  </si>
+  <si>
+    <t>汉宣帝</t>
+  </si>
+  <si>
+    <t>中宗</t>
+  </si>
+  <si>
+    <t>刘奭</t>
+  </si>
+  <si>
+    <t>汉元帝</t>
+  </si>
+  <si>
+    <t>孝元皇帝</t>
+  </si>
+  <si>
+    <t>高宗</t>
+  </si>
+  <si>
+    <t>刘骜</t>
+  </si>
+  <si>
+    <t>汉成帝</t>
+  </si>
+  <si>
+    <t>孝成皇帝</t>
+  </si>
+  <si>
+    <t>统宗</t>
+  </si>
+  <si>
+    <t>汉哀帝</t>
+  </si>
+  <si>
+    <t>刘欣</t>
+  </si>
+  <si>
+    <t>孝哀皇帝</t>
+  </si>
+  <si>
+    <t>刘衎</t>
+  </si>
+  <si>
+    <t>汉平帝</t>
+  </si>
+  <si>
+    <t>元宗</t>
+  </si>
+  <si>
+    <t>孝平皇帝</t>
+  </si>
+  <si>
+    <t>刘婴</t>
+  </si>
+  <si>
+    <t>孺子婴</t>
+  </si>
+  <si>
+    <t>王莽</t>
+  </si>
+  <si>
+    <t>新朝</t>
+  </si>
+  <si>
+    <t>刘玄</t>
+  </si>
+  <si>
+    <t>更始帝</t>
+  </si>
+  <si>
+    <t>光武皇帝</t>
+  </si>
+  <si>
+    <t>东汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘秀</t>
+  </si>
+  <si>
+    <t>刘庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉明帝</t>
+  </si>
+  <si>
+    <t>汉光武帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孝明皇帝</t>
+  </si>
+  <si>
+    <t>汉章帝</t>
+  </si>
+  <si>
+    <t>刘炟</t>
+  </si>
+  <si>
+    <t>孝章皇帝</t>
+  </si>
+  <si>
+    <t>刘肇</t>
+  </si>
+  <si>
+    <t>汉和帝</t>
+  </si>
+  <si>
+    <t>穆宗</t>
+  </si>
+  <si>
+    <t>孝和皇帝</t>
+  </si>
+  <si>
+    <t>汉殇帝</t>
+  </si>
+  <si>
+    <t>孝殇皇帝</t>
+  </si>
+  <si>
+    <t>刘隆</t>
+  </si>
+  <si>
+    <t>汉安帝</t>
+  </si>
+  <si>
+    <t>刘祜</t>
+  </si>
+  <si>
+    <t>孝安皇帝</t>
+  </si>
+  <si>
+    <t>刘懿</t>
+  </si>
+  <si>
+    <t>刘保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉顺帝</t>
+  </si>
+  <si>
+    <t>敬宗</t>
+  </si>
+  <si>
+    <t>孝顺皇帝</t>
+  </si>
+  <si>
+    <t>刘炳</t>
+  </si>
+  <si>
+    <t>汉冲帝</t>
+  </si>
+  <si>
+    <t>孝冲皇帝</t>
+  </si>
+  <si>
+    <t>刘缵</t>
+  </si>
+  <si>
+    <t>汉质帝</t>
+  </si>
+  <si>
+    <t>孝质皇帝</t>
+  </si>
+  <si>
+    <t>刘志</t>
+  </si>
+  <si>
+    <t>汉桓帝</t>
+  </si>
+  <si>
+    <t>威宗</t>
+  </si>
+  <si>
+    <t>孝桓皇帝</t>
+  </si>
+  <si>
+    <t>刘宏</t>
+  </si>
+  <si>
+    <t>汉灵帝</t>
+  </si>
+  <si>
+    <t>孝灵皇帝</t>
+  </si>
+  <si>
+    <t>刘辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉废帝</t>
+  </si>
+  <si>
+    <t>汉献帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘协</t>
+  </si>
+  <si>
+    <t>孝献皇帝/孝愍皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹魏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹丕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏文帝</t>
+  </si>
+  <si>
+    <t>文皇帝</t>
+  </si>
+  <si>
+    <t>魏明帝</t>
+  </si>
+  <si>
+    <t>曹叡</t>
+  </si>
+  <si>
+    <t>明皇帝</t>
+  </si>
+  <si>
+    <t>曹芳</t>
+  </si>
+  <si>
+    <t>邵陵厉公</t>
+  </si>
+  <si>
+    <t>厉公</t>
+  </si>
+  <si>
+    <t>曹髦</t>
+  </si>
+  <si>
+    <t>高贵乡公</t>
+  </si>
+  <si>
+    <t>254.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹奂</t>
+  </si>
+  <si>
+    <t>元皇帝</t>
+  </si>
+  <si>
+    <t>魏元帝</t>
+  </si>
+  <si>
+    <t>260.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉昭烈帝</t>
+  </si>
+  <si>
+    <t>昭烈皇帝</t>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘禅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀后主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴大帝</t>
+  </si>
+  <si>
+    <t>大皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙亮</t>
+  </si>
+  <si>
+    <t>吴废帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>258.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙休</t>
+  </si>
+  <si>
+    <t>景皇帝</t>
+  </si>
+  <si>
+    <t>吴景帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙皓</t>
+  </si>
+  <si>
+    <t>吴末帝</t>
+  </si>
+  <si>
+    <t>280.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,9 +959,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,16 +1242,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,332 +1270,863 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-202.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-195.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-195.6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-188.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-188.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-184.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-184.6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-180.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-180.11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-157.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-157.69999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-141.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-87.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-87.3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-74.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-74.7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-74.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-48.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-48.1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-33.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>266</v>
-      </c>
-      <c r="G2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>290</v>
-      </c>
-      <c r="G3">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G21" s="2">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="2">
+        <v>88.4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="2">
+        <v>106.2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="2">
+        <v>125.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>125.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="2">
+        <v>125.12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="2">
+        <v>144.9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="2">
+        <v>145</v>
+      </c>
+      <c r="G28" s="2">
+        <v>146.80000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="2">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="2">
+        <v>168.2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="2">
+        <v>189.9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>220.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="2">
+        <v>220.12</v>
+      </c>
+      <c r="G33" s="2">
+        <v>226.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="2">
+        <v>226.6</v>
+      </c>
+      <c r="G34" s="2">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="2">
+        <v>239.1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
-        <v>307</v>
-      </c>
-      <c r="G4">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>313</v>
-      </c>
-      <c r="G5">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>317</v>
-      </c>
-      <c r="G6">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>323</v>
-      </c>
-      <c r="G7">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>325</v>
-      </c>
-      <c r="G8">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9">
-        <v>342</v>
-      </c>
-      <c r="G9">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10">
-        <v>344</v>
-      </c>
-      <c r="G10">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11">
-        <v>361</v>
-      </c>
-      <c r="G11">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12">
-        <v>365</v>
-      </c>
-      <c r="G12">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13">
-        <v>372</v>
-      </c>
-      <c r="G13">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14">
-        <v>372</v>
-      </c>
-      <c r="G14">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15">
-        <v>396</v>
-      </c>
-      <c r="G15">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16">
-        <v>419</v>
-      </c>
-      <c r="G16">
-        <v>420</v>
+      <c r="F39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1146,16 +2136,376 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>266.2</v>
+      </c>
+      <c r="G2">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>290.5</v>
+      </c>
+      <c r="G3">
+        <v>307.10000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>307</v>
+      </c>
+      <c r="G4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>313</v>
+      </c>
+      <c r="G5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>317</v>
+      </c>
+      <c r="G6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>323</v>
+      </c>
+      <c r="G7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>325</v>
+      </c>
+      <c r="G8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>342</v>
+      </c>
+      <c r="G9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>344</v>
+      </c>
+      <c r="G10">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>361</v>
+      </c>
+      <c r="G11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>365</v>
+      </c>
+      <c r="G12">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>372</v>
+      </c>
+      <c r="G13">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>372</v>
+      </c>
+      <c r="G14">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>396</v>
+      </c>
+      <c r="G15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>419</v>
+      </c>
+      <c r="G16">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90200AAB-AC5C-4994-A82A-CDE63709D966}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +2531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1204,7 +2554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1218,7 +2568,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1241,7 +2591,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1261,7 +2611,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1275,7 +2625,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1298,7 +2648,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1312,7 +2662,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1335,7 +2685,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1349,7 +2699,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1363,7 +2713,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1377,7 +2727,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -1391,7 +2741,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -1411,7 +2761,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1434,7 +2784,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1451,7 +2801,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1474,7 +2824,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1494,7 +2844,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -1517,7 +2867,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1537,7 +2887,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1560,7 +2910,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>93</v>
       </c>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAFE09E-7CB1-4F40-B1E8-7665F643FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A200597-9FD0-40EA-AAEF-9F2E80BDE8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,9 +534,6 @@
     <t>孝昭皇帝</t>
   </si>
   <si>
-    <t>西汉废帝</t>
-  </si>
-  <si>
     <t>刘贺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,6 +897,10 @@
   </si>
   <si>
     <t>280.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉废帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1448,10 +1449,10 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="F10" s="2">
         <v>-74.7</v>
@@ -1465,16 +1466,16 @@
         <v>119</v>
       </c>
       <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
         <v>142</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
       </c>
       <c r="F11" s="2">
         <v>-74.900000000000006</v>
@@ -1488,16 +1489,16 @@
         <v>119</v>
       </c>
       <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
         <v>146</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
         <v>147</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
       </c>
       <c r="F12" s="2">
         <v>-48.1</v>
@@ -1511,16 +1512,16 @@
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
         <v>150</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
         <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>152</v>
       </c>
       <c r="F13" s="2">
         <v>-33.799999999999997</v>
@@ -1534,13 +1535,13 @@
         <v>119</v>
       </c>
       <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
         <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" t="s">
-        <v>156</v>
       </c>
       <c r="F14" s="2">
         <v>-7.5</v>
@@ -1554,16 +1555,16 @@
         <v>119</v>
       </c>
       <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>159</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
       </c>
       <c r="F15" s="2">
         <v>-1.1000000000000001</v>
@@ -1577,10 +1578,10 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
         <v>161</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
@@ -1591,10 +1592,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="2">
         <v>9.1</v>
@@ -1608,10 +1609,10 @@
         <v>119</v>
       </c>
       <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
         <v>165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
       </c>
       <c r="F18" s="2">
         <v>23.1</v>
@@ -1622,19 +1623,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
         <v>168</v>
       </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="2">
         <v>25.8</v>
@@ -1645,19 +1646,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2">
         <v>57.3</v>
@@ -1668,19 +1669,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="2">
         <v>75.900000000000006</v>
@@ -1691,19 +1692,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
         <v>177</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>178</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>179</v>
-      </c>
-      <c r="E22" t="s">
-        <v>180</v>
       </c>
       <c r="F22" s="2">
         <v>88.4</v>
@@ -1714,16 +1715,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" t="s">
         <v>181</v>
-      </c>
-      <c r="E23" t="s">
-        <v>182</v>
       </c>
       <c r="F23" s="2">
         <v>106.2</v>
@@ -1734,16 +1735,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
         <v>185</v>
-      </c>
-      <c r="C24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" t="s">
-        <v>186</v>
       </c>
       <c r="F24" s="2">
         <v>106.9</v>
@@ -1754,10 +1755,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
         <v>124</v>
@@ -1771,19 +1772,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
         <v>188</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>189</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>191</v>
       </c>
       <c r="F26" s="2">
         <v>125.12</v>
@@ -1794,16 +1795,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
         <v>192</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>193</v>
-      </c>
-      <c r="E27" t="s">
-        <v>194</v>
       </c>
       <c r="F27" s="2">
         <v>144.9</v>
@@ -1814,16 +1815,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
         <v>195</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>196</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
       </c>
       <c r="F28" s="2">
         <v>145</v>
@@ -1834,19 +1835,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
         <v>198</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>199</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>200</v>
-      </c>
-      <c r="E29" t="s">
-        <v>201</v>
       </c>
       <c r="F29" s="2">
         <v>146.80000000000001</v>
@@ -1857,16 +1858,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
         <v>202</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>204</v>
       </c>
       <c r="F30" s="2">
         <v>168.2</v>
@@ -1877,13 +1878,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
         <v>205</v>
-      </c>
-      <c r="C31" t="s">
-        <v>206</v>
       </c>
       <c r="F31" s="2">
         <v>189.5</v>
@@ -1894,16 +1895,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
         <v>208</v>
-      </c>
-      <c r="C32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" t="s">
-        <v>209</v>
       </c>
       <c r="F32" s="2">
         <v>189.9</v>
@@ -1914,19 +1915,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s">
         <v>210</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>211</v>
-      </c>
-      <c r="C33" t="s">
-        <v>212</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F33" s="2">
         <v>220.12</v>
@@ -1937,19 +1938,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
         <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F34" s="2">
         <v>226.6</v>
@@ -1960,173 +1961,173 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
         <v>217</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>218</v>
-      </c>
-      <c r="E35" t="s">
-        <v>219</v>
       </c>
       <c r="F35" s="2">
         <v>239.1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
         <v>220</v>
-      </c>
-      <c r="C36" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" t="s">
         <v>223</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E37" t="s">
-        <v>224</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" t="s">
         <v>228</v>
-      </c>
-      <c r="B38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>229</v>
       </c>
       <c r="D38" t="s">
         <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" t="s">
         <v>235</v>
-      </c>
-      <c r="C39" t="s">
-        <v>236</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s">
         <v>237</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>238</v>
-      </c>
-      <c r="C40" t="s">
-        <v>239</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
       </c>
       <c r="E40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" t="s">
         <v>243</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" t="s">
         <v>246</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E42" t="s">
-        <v>247</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" t="s">
         <v>250</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A200597-9FD0-40EA-AAEF-9F2E80BDE8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BC8F71-395E-4ED1-B794-0CF79A980D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东西汉三国" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="264">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,9 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冉闵</t>
-  </si>
-  <si>
     <t>武悼天王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,31 +348,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>慕容儁</t>
-  </si>
-  <si>
     <t>烈祖</t>
   </si>
   <si>
-    <t>慕容暐</t>
-  </si>
-  <si>
     <t>前秦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苻健</t>
-  </si>
-  <si>
-    <t>秦高祖</t>
-  </si>
-  <si>
-    <t>苻生</t>
-  </si>
-  <si>
-    <t>越厉王</t>
-  </si>
-  <si>
     <t>平皇帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,36 +378,12 @@
     <t>世祖</t>
   </si>
   <si>
-    <t>秦宣昭帝</t>
-  </si>
-  <si>
     <t>景昭帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苻丕</t>
-  </si>
-  <si>
-    <t>哀平皇帝</t>
-  </si>
-  <si>
-    <t>秦哀平帝</t>
-  </si>
-  <si>
-    <t>苻登</t>
-  </si>
-  <si>
-    <t>高皇帝</t>
-  </si>
-  <si>
     <t>太宗</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦高帝</t>
-  </si>
-  <si>
-    <t>苻崇</t>
   </si>
   <si>
     <t>宣昭皇帝</t>
@@ -903,12 +858,116 @@
     <t>汉废帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>成汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成哀帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉闵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容儁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容暐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦高祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越厉王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦宣昭帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻丕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦哀平帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀平皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦高帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苻崇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成武帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭文皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,14 +977,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -960,9 +1011,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,16 +1296,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="8.6640625" style="2"/>
+    <col min="6" max="7" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1271,863 +1321,863 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2">
+        <v>103</v>
+      </c>
+      <c r="F2" s="1">
         <v>-202.2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>-195.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="2">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1">
         <v>-195.6</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>-188.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="2">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1">
         <v>-188.9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>-184.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="2">
+        <v>111</v>
+      </c>
+      <c r="F5" s="1">
         <v>-184.6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>-180.11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-180.11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-157.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-157.69999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-141.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-87.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-87.3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-74.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-74.7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-74.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="2">
-        <v>-180.11</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-157.69999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-48.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="2">
-        <v>-157.69999999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-141.30000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F12" s="1">
+        <v>-48.1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-33.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
         <v>134</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C13" t="s">
         <v>135</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="2">
-        <v>-141.30000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-87.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F13" s="1">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
         <v>138</v>
       </c>
-      <c r="E9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-87.3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-74.599999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E14" t="s">
         <v>140</v>
       </c>
-      <c r="C10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-74.7</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-74.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F14" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
         <v>143</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15" t="s">
         <v>144</v>
       </c>
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-74.900000000000006</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-48.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F15" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>146</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>148</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B17" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="2">
-        <v>-48.1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-33.700000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F17" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F18" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>152</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="2">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-7.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F19" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
         <v>154</v>
       </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C20" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G15" s="2">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="2">
-        <v>25.8</v>
-      </c>
-      <c r="G19" s="2">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" t="s">
-        <v>170</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="2">
+        <v>157</v>
+      </c>
+      <c r="F20" s="1">
         <v>57.3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G21" s="1">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="1">
+        <v>106.2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="1">
+        <v>106.9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1">
+        <v>125.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>125.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="2">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="G21" s="2">
-        <v>88.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="F26" s="1">
+        <v>125.12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
         <v>176</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>177</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E27" t="s">
         <v>178</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F27" s="1">
+        <v>144.9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-      <c r="F22" s="2">
-        <v>88.4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="1">
+        <v>145</v>
+      </c>
+      <c r="G28" s="1">
+        <v>146.80000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" t="s">
         <v>182</v>
       </c>
-      <c r="C23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="2">
-        <v>106.2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>106.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
         <v>184</v>
       </c>
-      <c r="C24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E29" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="2">
-        <v>106.9</v>
-      </c>
-      <c r="G24" s="2">
-        <v>125.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F29" s="1">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
         <v>186</v>
       </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="2">
-        <v>125.5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>125.12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C30" t="s">
         <v>187</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E30" t="s">
         <v>188</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F30" s="1">
+        <v>168.2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
         <v>189</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C31" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="2">
-        <v>125.12</v>
-      </c>
-      <c r="G26" s="2">
-        <v>144.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="F31" s="1">
+        <v>189.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
         <v>191</v>
       </c>
-      <c r="C27" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="2">
-        <v>144.9</v>
-      </c>
-      <c r="G27" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="F32" s="1">
+        <v>189.9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>220.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>194</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B33" t="s">
         <v>195</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C33" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="2">
-        <v>145</v>
-      </c>
-      <c r="G28" s="2">
-        <v>146.80000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="2">
-        <v>146.80000000000001</v>
-      </c>
-      <c r="G29" s="2">
-        <v>168.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="2">
-        <v>168.2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>189.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="2">
-        <v>189.5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>189.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" t="s">
-        <v>206</v>
-      </c>
-      <c r="E32" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="2">
-        <v>189.9</v>
-      </c>
-      <c r="G32" s="2">
-        <v>220.11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>211</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="1">
+        <v>220.12</v>
+      </c>
+      <c r="G33" s="1">
+        <v>226.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>226.6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="1">
+        <v>239.1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="2">
-        <v>220.12</v>
-      </c>
-      <c r="G33" s="2">
-        <v>226.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
         <v>214</v>
       </c>
-      <c r="C34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="2">
-        <v>226.6</v>
-      </c>
-      <c r="G34" s="2">
-        <v>239.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="2">
-        <v>239.1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
         <v>219</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" t="s">
-        <v>223</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" t="s">
-        <v>235</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B41" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" t="s">
-        <v>243</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" t="s">
-        <v>246</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2144,9 +2194,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2195,7 +2245,7 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2265,7 @@
         <v>307.10000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2285,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2305,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2278,7 +2328,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2301,7 +2351,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2324,7 +2374,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2344,7 +2394,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2367,7 +2417,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2387,7 +2437,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2454,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2427,7 +2477,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2450,7 +2500,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2470,7 +2520,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2498,15 +2548,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90200AAB-AC5C-4994-A82A-CDE63709D966}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2555,7 +2605,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2569,7 +2619,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2592,7 +2642,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2612,7 +2662,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2676,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2649,7 +2699,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2663,7 +2713,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2686,7 +2736,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2700,7 +2750,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2714,7 +2764,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2728,7 +2778,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2742,18 +2792,18 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
       <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>350</v>
@@ -2762,21 +2812,21 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>352</v>
@@ -2785,15 +2835,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>360</v>
@@ -2802,21 +2852,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>351</v>
@@ -2825,18 +2875,18 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>250</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
       </c>
       <c r="F18">
         <v>355</v>
@@ -2845,21 +2895,21 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F19">
         <v>357</v>
@@ -2868,18 +2918,18 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="F20">
         <v>385</v>
@@ -2888,21 +2938,21 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F21">
         <v>386</v>
@@ -2911,18 +2961,112 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="F22">
         <v>394</v>
       </c>
       <c r="G22">
         <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>306</v>
+      </c>
+      <c r="G23">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24">
+        <v>334</v>
+      </c>
+      <c r="G24">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25">
+        <v>334</v>
+      </c>
+      <c r="G25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26">
+        <v>338</v>
+      </c>
+      <c r="G26">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27">
+        <v>343</v>
+      </c>
+      <c r="G27">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BC8F71-395E-4ED1-B794-0CF79A980D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2980D-5F52-4A2D-95BF-00492060D9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="东西汉三国" sheetId="3" r:id="rId1"/>
-    <sheet name="两晋" sheetId="1" r:id="rId2"/>
-    <sheet name="十六国" sheetId="2" r:id="rId3"/>
+    <sheet name="年号" sheetId="5" r:id="rId1"/>
+    <sheet name="东西汉三国" sheetId="3" r:id="rId2"/>
+    <sheet name="两晋" sheetId="1" r:id="rId3"/>
+    <sheet name="十六国" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="300">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,12 +963,120 @@
     <t>昭文皇帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>年号</t>
+  </si>
+  <si>
+    <t>公元起</t>
+  </si>
+  <si>
+    <t>公元止</t>
+  </si>
+  <si>
+    <t>泰始</t>
+  </si>
+  <si>
+    <t>咸宁</t>
+  </si>
+  <si>
+    <t>太熙</t>
+  </si>
+  <si>
+    <t>永熙</t>
+  </si>
+  <si>
+    <t>永平</t>
+  </si>
+  <si>
+    <t>元康</t>
+  </si>
+  <si>
+    <t>永康</t>
+  </si>
+  <si>
+    <t>永宁</t>
+  </si>
+  <si>
+    <t>太安</t>
+  </si>
+  <si>
+    <t>永兴</t>
+  </si>
+  <si>
+    <t>光熙</t>
+  </si>
+  <si>
+    <t>永嘉</t>
+  </si>
+  <si>
+    <t>建武</t>
+  </si>
+  <si>
+    <t>太兴</t>
+  </si>
+  <si>
+    <t>永昌</t>
+  </si>
+  <si>
+    <t>太宁</t>
+  </si>
+  <si>
+    <t>咸和</t>
+  </si>
+  <si>
+    <t>咸康</t>
+  </si>
+  <si>
+    <t>建元</t>
+  </si>
+  <si>
+    <t>永和</t>
+  </si>
+  <si>
+    <t>升平</t>
+  </si>
+  <si>
+    <t>隆和</t>
+  </si>
+  <si>
+    <t>兴宁</t>
+  </si>
+  <si>
+    <t>太和</t>
+  </si>
+  <si>
+    <t>咸安</t>
+  </si>
+  <si>
+    <t>宁康</t>
+  </si>
+  <si>
+    <t>太元</t>
+  </si>
+  <si>
+    <t>隆安</t>
+  </si>
+  <si>
+    <t>大亨</t>
+  </si>
+  <si>
+    <t>义熙</t>
+  </si>
+  <si>
+    <t>元熙</t>
+  </si>
+  <si>
+    <t>东晋</t>
+  </si>
+  <si>
+    <t>建兴</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1094,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1011,9 +1129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1293,6 +1417,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="3">
+        <v>266</v>
+      </c>
+      <c r="D2" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="3">
+        <v>275</v>
+      </c>
+      <c r="D3" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="3">
+        <v>280</v>
+      </c>
+      <c r="D4" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="3">
+        <v>290</v>
+      </c>
+      <c r="D5" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="3">
+        <v>290</v>
+      </c>
+      <c r="D6" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="3">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="3">
+        <v>291</v>
+      </c>
+      <c r="D8" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="3">
+        <v>300</v>
+      </c>
+      <c r="D9" s="3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="3">
+        <v>301</v>
+      </c>
+      <c r="D10" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="3">
+        <v>302</v>
+      </c>
+      <c r="D11" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="3">
+        <v>304</v>
+      </c>
+      <c r="D12" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="3">
+        <v>304</v>
+      </c>
+      <c r="D13" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="3">
+        <v>306</v>
+      </c>
+      <c r="D14" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="3">
+        <v>307</v>
+      </c>
+      <c r="D15" s="3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="3">
+        <v>313</v>
+      </c>
+      <c r="D16" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="3">
+        <v>317</v>
+      </c>
+      <c r="D17" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="3">
+        <v>318</v>
+      </c>
+      <c r="D18" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="3">
+        <v>322</v>
+      </c>
+      <c r="D19" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="3">
+        <v>323</v>
+      </c>
+      <c r="D20" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="3">
+        <v>325</v>
+      </c>
+      <c r="D21" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="3">
+        <v>326</v>
+      </c>
+      <c r="D22" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="3">
+        <v>335</v>
+      </c>
+      <c r="D23" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="3">
+        <v>343</v>
+      </c>
+      <c r="D24" s="3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="3">
+        <v>345</v>
+      </c>
+      <c r="D25" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="3">
+        <v>357</v>
+      </c>
+      <c r="D26" s="3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="3">
+        <v>362</v>
+      </c>
+      <c r="D27" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="3">
+        <v>363</v>
+      </c>
+      <c r="D28" s="3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="3">
+        <v>366</v>
+      </c>
+      <c r="D29" s="3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="3">
+        <v>371</v>
+      </c>
+      <c r="D30" s="3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="3">
+        <v>373</v>
+      </c>
+      <c r="D31" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="3">
+        <v>376</v>
+      </c>
+      <c r="D32" s="3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="3">
+        <v>397</v>
+      </c>
+      <c r="D33" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="3">
+        <v>402</v>
+      </c>
+      <c r="D34" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" s="3">
+        <v>405</v>
+      </c>
+      <c r="D35" s="3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="3">
+        <v>419</v>
+      </c>
+      <c r="D36" s="3">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -2186,12 +2830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2546,12 +3190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90200AAB-AC5C-4994-A82A-CDE63709D966}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD2980D-5F52-4A2D-95BF-00492060D9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A1E95E-6BB7-4617-B00B-8BD15DB6E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="301">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1070,6 +1070,10 @@
   </si>
   <si>
     <t>建兴</t>
+  </si>
+  <si>
+    <t>永安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1421,7 +1425,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1585,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3">
         <v>304</v>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A1E95E-6BB7-4617-B00B-8BD15DB6E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA69DD0-1B44-4226-84CD-3ACFFD5B823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="305">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,9 +1012,6 @@
     <t>建武</t>
   </si>
   <si>
-    <t>太兴</t>
-  </si>
-  <si>
     <t>永昌</t>
   </si>
   <si>
@@ -1057,9 +1054,6 @@
     <t>隆安</t>
   </si>
   <si>
-    <t>大亨</t>
-  </si>
-  <si>
     <t>义熙</t>
   </si>
   <si>
@@ -1073,6 +1067,25 @@
   </si>
   <si>
     <t>永安</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>太康</t>
+  </si>
+  <si>
+    <t>大兴</t>
+  </si>
+  <si>
+    <t>元兴</t>
+  </si>
+  <si>
+    <t>司马炽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马邺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,8 +1121,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1121,7 +1133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1129,18 +1141,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,515 +1450,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
         <v>266</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
         <v>275</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="3">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>280</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="3">
-        <v>290</v>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="3">
-        <v>290</v>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>290</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="3">
-        <v>291</v>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>291</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
         <v>291</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>300</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
         <v>301</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>302</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="3">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>304</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
         <v>304</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="3">
-        <v>306</v>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="3">
         <v>307</v>
       </c>
-      <c r="D15" s="3">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="2">
         <v>313</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="2">
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
         <v>317</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>318</v>
+      </c>
+      <c r="E18" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="3">
-        <v>318</v>
-      </c>
-      <c r="D18" s="3">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>298</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>322</v>
+      </c>
+      <c r="E19" s="3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3">
+        <v>322</v>
+      </c>
+      <c r="E20" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="3">
-        <v>322</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3">
         <v>323</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="E21" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="3">
-        <v>323</v>
-      </c>
-      <c r="D20" s="3">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="3">
-        <v>325</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3">
         <v>326</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C22" s="3">
-        <v>326</v>
-      </c>
-      <c r="D22" s="3">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>335</v>
+      </c>
+      <c r="E23" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="3">
-        <v>335</v>
-      </c>
-      <c r="D23" s="3">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>298</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3">
+        <v>343</v>
+      </c>
+      <c r="E24" s="3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="3">
-        <v>343</v>
-      </c>
-      <c r="D24" s="3">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3">
+        <v>345</v>
+      </c>
+      <c r="E25" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="3">
-        <v>345</v>
-      </c>
-      <c r="D25" s="3">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3">
+        <v>357</v>
+      </c>
+      <c r="E26" s="3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="3">
-        <v>357</v>
-      </c>
-      <c r="D26" s="3">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3">
+        <v>362</v>
+      </c>
+      <c r="E27" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="3">
-        <v>362</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
         <v>363</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="E28" s="3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="3">
-        <v>363</v>
-      </c>
-      <c r="D28" s="3">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>366</v>
+      </c>
+      <c r="E29" s="3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="3">
-        <v>366</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3">
         <v>371</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="E30" s="3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C30" s="3">
-        <v>371</v>
-      </c>
-      <c r="D30" s="3">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3">
+        <v>373</v>
+      </c>
+      <c r="E31" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C31" s="3">
-        <v>373</v>
-      </c>
-      <c r="D31" s="3">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>298</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>376</v>
+      </c>
+      <c r="E32" s="3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C32" s="3">
-        <v>376</v>
-      </c>
-      <c r="D32" s="3">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3">
+        <v>397</v>
+      </c>
+      <c r="E33" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3">
+        <v>402</v>
+      </c>
+      <c r="E34" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C33" s="3">
-        <v>397</v>
-      </c>
-      <c r="D33" s="3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>405</v>
+      </c>
+      <c r="E35" s="3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="3">
-        <v>402</v>
-      </c>
-      <c r="D34" s="3">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C35" s="3">
-        <v>405</v>
-      </c>
-      <c r="D35" s="3">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>298</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3">
         <v>419</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>420</v>
       </c>
     </row>
@@ -1944,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2839,7 +2978,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA69DD0-1B44-4226-84CD-3ACFFD5B823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200358A-E9D6-44FD-9BBA-60594B636A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1713,7 @@
         <v>307</v>
       </c>
       <c r="E15" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200358A-E9D6-44FD-9BBA-60594B636A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E91F3-88F1-4BAD-ABDD-BA0E5ED29764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年号" sheetId="5" r:id="rId1"/>
@@ -1160,13 +1160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1452,271 +1451,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>266</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>275</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>280</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>290</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>290</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>291</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>291</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>301</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>302</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>304</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>304</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>306</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>303</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>307</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1733,343 +1732,343 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>317</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>318</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>296</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>322</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>322</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>281</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>323</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>326</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>335</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>284</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>343</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>345</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>357</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>296</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>362</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>296</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>363</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>289</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>366</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>296</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>290</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>371</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>296</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>373</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>376</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>293</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>397</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>402</v>
       </c>
-      <c r="E34" s="3">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>296</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>294</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>405</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>296</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>419</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>420</v>
       </c>
     </row>
@@ -2083,16 +2082,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="7" width="8.625" style="1"/>
+    <col min="6" max="7" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>-195.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>-188.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>-184.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>-180.11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>-157.69999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>-141.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>-87.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>-74.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>-74.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>-48.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>-33.700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>106.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>125.12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>144.9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>146.80000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>168.1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>189.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>220.11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>226.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>212</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>221</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>221</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -2978,12 +2977,12 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>307.10000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3341,9 +3340,9 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3523,7 +3522,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>238</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>238</v>
       </c>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E91F3-88F1-4BAD-ABDD-BA0E5ED29764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E64C79-952D-4D73-9F79-570EA2CC9EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年号" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="306">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,6 +1086,10 @@
   </si>
   <si>
     <t>司马邺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2082,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2824,6 +2828,12 @@
       </c>
       <c r="C36" t="s">
         <v>205</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E64C79-952D-4D73-9F79-570EA2CC9EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F806340-9016-41DD-872E-1F3715764B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年号" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="380">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1091,6 +1091,228 @@
   <si>
     <t>260.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉赵</t>
+  </si>
+  <si>
+    <t>刘渊</t>
+  </si>
+  <si>
+    <t>永凤</t>
+  </si>
+  <si>
+    <t>河瑞</t>
+  </si>
+  <si>
+    <t>光兴</t>
+  </si>
+  <si>
+    <t>刘聪</t>
+  </si>
+  <si>
+    <t>嘉平</t>
+  </si>
+  <si>
+    <t>鹏嘉</t>
+  </si>
+  <si>
+    <t>汉昌</t>
+  </si>
+  <si>
+    <t>光初</t>
+  </si>
+  <si>
+    <t>成汉</t>
+  </si>
+  <si>
+    <t>建初</t>
+  </si>
+  <si>
+    <t>李特</t>
+  </si>
+  <si>
+    <t>李雄</t>
+  </si>
+  <si>
+    <t>昭平</t>
+  </si>
+  <si>
+    <t>玉衡</t>
+  </si>
+  <si>
+    <t>玉恒</t>
+  </si>
+  <si>
+    <t>李期</t>
+  </si>
+  <si>
+    <t>汉兴</t>
+  </si>
+  <si>
+    <t>李寿</t>
+  </si>
+  <si>
+    <t>大和</t>
+  </si>
+  <si>
+    <t>嘉宁</t>
+  </si>
+  <si>
+    <t>后赵</t>
+  </si>
+  <si>
+    <t>石勒</t>
+  </si>
+  <si>
+    <t>建平</t>
+  </si>
+  <si>
+    <t>延熙</t>
+  </si>
+  <si>
+    <t>石虎</t>
+  </si>
+  <si>
+    <t>青龙</t>
+  </si>
+  <si>
+    <t>前燕</t>
+  </si>
+  <si>
+    <t>燕元</t>
+  </si>
+  <si>
+    <t>慕容皝</t>
+  </si>
+  <si>
+    <t>元玺</t>
+  </si>
+  <si>
+    <t>慕容俊</t>
+  </si>
+  <si>
+    <t>光寿</t>
+  </si>
+  <si>
+    <t>建熙</t>
+  </si>
+  <si>
+    <t>慕容暐</t>
+  </si>
+  <si>
+    <t>前秦</t>
+  </si>
+  <si>
+    <t>皇始</t>
+  </si>
+  <si>
+    <t>苻健</t>
+  </si>
+  <si>
+    <t>寿光</t>
+  </si>
+  <si>
+    <t>苻生</t>
+  </si>
+  <si>
+    <t>甘露</t>
+  </si>
+  <si>
+    <t>苻坚</t>
+  </si>
+  <si>
+    <t>苻丕</t>
+  </si>
+  <si>
+    <t>弘始</t>
+  </si>
+  <si>
+    <t>苻登</t>
+  </si>
+  <si>
+    <t>苻崇</t>
+  </si>
+  <si>
+    <t>黄初</t>
+  </si>
+  <si>
+    <t>曹丕</t>
+  </si>
+  <si>
+    <t>景初</t>
+  </si>
+  <si>
+    <t>正始</t>
+  </si>
+  <si>
+    <t>正元</t>
+  </si>
+  <si>
+    <t>景元</t>
+  </si>
+  <si>
+    <t>咸熙</t>
+  </si>
+  <si>
+    <t>蜀汉</t>
+  </si>
+  <si>
+    <t>章武</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>刘禅</t>
+  </si>
+  <si>
+    <t>景耀</t>
+  </si>
+  <si>
+    <t>炎兴</t>
+  </si>
+  <si>
+    <t>黄武</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>黄龙</t>
+  </si>
+  <si>
+    <t>嘉禾</t>
+  </si>
+  <si>
+    <t>赤乌</t>
+  </si>
+  <si>
+    <t>神凤</t>
+  </si>
+  <si>
+    <t>五凤</t>
+  </si>
+  <si>
+    <t>太平</t>
+  </si>
+  <si>
+    <t>宝鼎</t>
+  </si>
+  <si>
+    <t>建衡</t>
+  </si>
+  <si>
+    <t>凤皇</t>
+  </si>
+  <si>
+    <t>天册</t>
+  </si>
+  <si>
+    <t>天玺</t>
+  </si>
+  <si>
+    <t>天纪</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2076,6 +2298,1162 @@
         <v>420</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="2">
+        <v>304</v>
+      </c>
+      <c r="E37" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="2">
+        <v>308</v>
+      </c>
+      <c r="E38" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="2">
+        <v>309</v>
+      </c>
+      <c r="E39" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D40" s="2">
+        <v>310</v>
+      </c>
+      <c r="E40" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="2">
+        <v>311</v>
+      </c>
+      <c r="E41" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="2">
+        <v>315</v>
+      </c>
+      <c r="E42" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="2">
+        <v>316</v>
+      </c>
+      <c r="E43" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="2">
+        <v>318</v>
+      </c>
+      <c r="E44" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2">
+        <v>318</v>
+      </c>
+      <c r="E45" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="2">
+        <v>303</v>
+      </c>
+      <c r="E46" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="2">
+        <v>304</v>
+      </c>
+      <c r="E47" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="2">
+        <v>306</v>
+      </c>
+      <c r="E48" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="2">
+        <v>311</v>
+      </c>
+      <c r="E49" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" s="2">
+        <v>335</v>
+      </c>
+      <c r="E50" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" s="2">
+        <v>338</v>
+      </c>
+      <c r="E51" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" s="2">
+        <v>344</v>
+      </c>
+      <c r="E52" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="2">
+        <v>346</v>
+      </c>
+      <c r="E53" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54" s="2">
+        <v>328</v>
+      </c>
+      <c r="E54" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="2">
+        <v>330</v>
+      </c>
+      <c r="E55" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="2">
+        <v>334</v>
+      </c>
+      <c r="E56" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="2">
+        <v>334</v>
+      </c>
+      <c r="E57" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="2">
+        <v>349</v>
+      </c>
+      <c r="E58" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2">
+        <v>350</v>
+      </c>
+      <c r="E59" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="2">
+        <v>350</v>
+      </c>
+      <c r="E60" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="2">
+        <v>345</v>
+      </c>
+      <c r="E61" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D62" s="2">
+        <v>352</v>
+      </c>
+      <c r="E62" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D63" s="2">
+        <v>357</v>
+      </c>
+      <c r="E63" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D64" s="2">
+        <v>360</v>
+      </c>
+      <c r="E64" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D65" s="2">
+        <v>351</v>
+      </c>
+      <c r="E65" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D66" s="2">
+        <v>355</v>
+      </c>
+      <c r="E66" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D67" s="2">
+        <v>359</v>
+      </c>
+      <c r="E67" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D68" s="2">
+        <v>365</v>
+      </c>
+      <c r="E68" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" s="2">
+        <v>385</v>
+      </c>
+      <c r="E69" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D70" s="2">
+        <v>386</v>
+      </c>
+      <c r="E70" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" s="2">
+        <v>394</v>
+      </c>
+      <c r="E71" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="2">
+        <v>220</v>
+      </c>
+      <c r="E72" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="2">
+        <v>227</v>
+      </c>
+      <c r="E73" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="2">
+        <v>233</v>
+      </c>
+      <c r="E74" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="2">
+        <v>237</v>
+      </c>
+      <c r="E75" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="2">
+        <v>240</v>
+      </c>
+      <c r="E76" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="2">
+        <v>249</v>
+      </c>
+      <c r="E77" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="2">
+        <v>254</v>
+      </c>
+      <c r="E78" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="2">
+        <v>256</v>
+      </c>
+      <c r="E79" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="2">
+        <v>260</v>
+      </c>
+      <c r="E80" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="2">
+        <v>264</v>
+      </c>
+      <c r="E81" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" s="2">
+        <v>221</v>
+      </c>
+      <c r="E82" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" s="2">
+        <v>223</v>
+      </c>
+      <c r="E83" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D84" s="2">
+        <v>238</v>
+      </c>
+      <c r="E84" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" s="2">
+        <v>258</v>
+      </c>
+      <c r="E85" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D86" s="2">
+        <v>263</v>
+      </c>
+      <c r="E86" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" s="2">
+        <v>222</v>
+      </c>
+      <c r="E87" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D88" s="2">
+        <v>229</v>
+      </c>
+      <c r="E88" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D89" s="2">
+        <v>232</v>
+      </c>
+      <c r="E89" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D90" s="2">
+        <v>238</v>
+      </c>
+      <c r="E90" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D91" s="2">
+        <v>251</v>
+      </c>
+      <c r="E91" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92" s="2">
+        <v>252</v>
+      </c>
+      <c r="E92" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="2">
+        <v>252</v>
+      </c>
+      <c r="E93" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="2">
+        <v>254</v>
+      </c>
+      <c r="E94" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="2">
+        <v>256</v>
+      </c>
+      <c r="E95" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="2">
+        <v>258</v>
+      </c>
+      <c r="E96" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="2">
+        <v>264</v>
+      </c>
+      <c r="E97" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="2">
+        <v>265</v>
+      </c>
+      <c r="E98" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="2">
+        <v>266</v>
+      </c>
+      <c r="E99" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="2">
+        <v>269</v>
+      </c>
+      <c r="E100" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="2">
+        <v>272</v>
+      </c>
+      <c r="E101" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="2">
+        <v>275</v>
+      </c>
+      <c r="E102" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="2">
+        <v>276</v>
+      </c>
+      <c r="E103" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="2">
+        <v>277</v>
+      </c>
+      <c r="E104" s="2">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2086,7 +3464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C34A6-CD3C-4875-BEBC-78A85AB5A185}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F806340-9016-41DD-872E-1F3715764B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50704495-1D42-4AC0-AE23-D5BE1621E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="381">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,9 +1189,6 @@
     <t>元玺</t>
   </si>
   <si>
-    <t>慕容俊</t>
-  </si>
-  <si>
     <t>光寿</t>
   </si>
   <si>
@@ -1313,6 +1310,14 @@
   </si>
   <si>
     <t>天纪</t>
+  </si>
+  <si>
+    <t>赵王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1675,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:A104"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1704,1754 +1709,1822 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="2">
+        <v>220</v>
+      </c>
+      <c r="E2" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="2">
+        <v>227</v>
+      </c>
+      <c r="E3" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="2">
+        <v>233</v>
+      </c>
+      <c r="E4" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="2">
+        <v>237</v>
+      </c>
+      <c r="E5" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="2">
+        <v>240</v>
+      </c>
+      <c r="E6" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="2">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="2">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="2">
+        <v>256</v>
+      </c>
+      <c r="E9" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="2">
+        <v>260</v>
+      </c>
+      <c r="E10" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="2">
+        <v>264</v>
+      </c>
+      <c r="E11" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="2">
+        <v>221</v>
+      </c>
+      <c r="E12" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="2">
+        <v>223</v>
+      </c>
+      <c r="E13" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="2">
+        <v>238</v>
+      </c>
+      <c r="E14" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="2">
+        <v>258</v>
+      </c>
+      <c r="E15" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="2">
+        <v>263</v>
+      </c>
+      <c r="E16" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="2">
+        <v>222</v>
+      </c>
+      <c r="E17" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="2">
+        <v>229</v>
+      </c>
+      <c r="E18" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="2">
+        <v>232</v>
+      </c>
+      <c r="E19" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="2">
+        <v>238</v>
+      </c>
+      <c r="E20" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="2">
+        <v>251</v>
+      </c>
+      <c r="E21" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="2">
+        <v>252</v>
+      </c>
+      <c r="E22" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="2">
+        <v>252</v>
+      </c>
+      <c r="E23" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="2">
+        <v>254</v>
+      </c>
+      <c r="E24" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="2">
+        <v>256</v>
+      </c>
+      <c r="E25" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="2">
+        <v>258</v>
+      </c>
+      <c r="E26" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="2">
+        <v>264</v>
+      </c>
+      <c r="E27" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="2">
+        <v>265</v>
+      </c>
+      <c r="E28" s="2">
         <v>266</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="2">
+        <v>266</v>
+      </c>
+      <c r="E29" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="2">
+        <v>269</v>
+      </c>
+      <c r="E30" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="2">
+        <v>272</v>
+      </c>
+      <c r="E31" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="2">
         <v>275</v>
       </c>
-      <c r="E3">
+      <c r="E32" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="2">
+        <v>276</v>
+      </c>
+      <c r="E33" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="2">
+        <v>277</v>
+      </c>
+      <c r="E34" s="2">
         <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>280</v>
-      </c>
-      <c r="E4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>290</v>
-      </c>
-      <c r="E5">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>290</v>
-      </c>
-      <c r="E6">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>291</v>
-      </c>
-      <c r="E7">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>291</v>
-      </c>
-      <c r="E8">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>300</v>
-      </c>
-      <c r="E9">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>301</v>
-      </c>
-      <c r="E10">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>302</v>
-      </c>
-      <c r="E11">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>304</v>
-      </c>
-      <c r="E12">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>304</v>
-      </c>
-      <c r="E13">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>306</v>
-      </c>
-      <c r="E14">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15">
-        <v>307</v>
-      </c>
-      <c r="E15">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="2">
-        <v>313</v>
-      </c>
-      <c r="E16" s="2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>317</v>
-      </c>
-      <c r="E17">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>318</v>
-      </c>
-      <c r="E18">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>322</v>
-      </c>
-      <c r="E19">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>322</v>
-      </c>
-      <c r="E20">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>323</v>
-      </c>
-      <c r="E21">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>326</v>
-      </c>
-      <c r="E22">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>335</v>
-      </c>
-      <c r="E23">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>343</v>
-      </c>
-      <c r="E24">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>345</v>
-      </c>
-      <c r="E25">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>357</v>
-      </c>
-      <c r="E26">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>362</v>
-      </c>
-      <c r="E27">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>363</v>
-      </c>
-      <c r="E28">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B29" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>366</v>
-      </c>
-      <c r="E29">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <v>371</v>
-      </c>
-      <c r="E30">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <v>373</v>
-      </c>
-      <c r="E31">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>376</v>
-      </c>
-      <c r="E32">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>296</v>
-      </c>
-      <c r="B33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>397</v>
-      </c>
-      <c r="E33">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34">
-        <v>402</v>
-      </c>
-      <c r="E34">
-        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>405</v>
+        <v>266</v>
       </c>
       <c r="E35">
-        <v>418</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>275</v>
+      </c>
+      <c r="E36">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>280</v>
+      </c>
+      <c r="E37">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>290</v>
+      </c>
+      <c r="E38">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>290</v>
+      </c>
+      <c r="E39">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>291</v>
+      </c>
+      <c r="E40">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>291</v>
+      </c>
+      <c r="E41">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>300</v>
+      </c>
+      <c r="E42">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>301</v>
+      </c>
+      <c r="E43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>302</v>
+      </c>
+      <c r="E44">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>304</v>
+      </c>
+      <c r="E45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>304</v>
+      </c>
+      <c r="E46">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>306</v>
+      </c>
+      <c r="E47">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48">
+        <v>307</v>
+      </c>
+      <c r="E48">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="2">
+        <v>313</v>
+      </c>
+      <c r="E49" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>296</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>317</v>
+      </c>
+      <c r="E50">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>318</v>
+      </c>
+      <c r="E51">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>322</v>
+      </c>
+      <c r="E52">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>322</v>
+      </c>
+      <c r="E53">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>323</v>
+      </c>
+      <c r="E54">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>326</v>
+      </c>
+      <c r="E55">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>335</v>
+      </c>
+      <c r="E56">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>343</v>
+      </c>
+      <c r="E57">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58">
+        <v>345</v>
+      </c>
+      <c r="E58">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>357</v>
+      </c>
+      <c r="E59">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>362</v>
+      </c>
+      <c r="E60">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>363</v>
+      </c>
+      <c r="E61">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>366</v>
+      </c>
+      <c r="E62">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>371</v>
+      </c>
+      <c r="E63">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>373</v>
+      </c>
+      <c r="E64">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>376</v>
+      </c>
+      <c r="E65">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66">
+        <v>397</v>
+      </c>
+      <c r="E66">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>402</v>
+      </c>
+      <c r="E67">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>405</v>
+      </c>
+      <c r="E68">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" t="s">
         <v>295</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C69" t="s">
         <v>30</v>
       </c>
-      <c r="D36">
+      <c r="D69">
         <v>419</v>
       </c>
-      <c r="E36">
+      <c r="E69">
         <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D37" s="2">
-        <v>304</v>
-      </c>
-      <c r="E37" s="2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D38" s="2">
-        <v>308</v>
-      </c>
-      <c r="E38" s="2">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D39" s="2">
-        <v>309</v>
-      </c>
-      <c r="E39" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" s="2">
-        <v>310</v>
-      </c>
-      <c r="E40" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="2">
-        <v>311</v>
-      </c>
-      <c r="E41" s="2">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="2">
-        <v>315</v>
-      </c>
-      <c r="E42" s="2">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D43" s="2">
-        <v>316</v>
-      </c>
-      <c r="E43" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="2">
-        <v>318</v>
-      </c>
-      <c r="E44" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="2">
-        <v>318</v>
-      </c>
-      <c r="E45" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D46" s="2">
-        <v>303</v>
-      </c>
-      <c r="E46" s="2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D47" s="2">
-        <v>304</v>
-      </c>
-      <c r="E47" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" s="2">
-        <v>306</v>
-      </c>
-      <c r="E48" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="2">
-        <v>311</v>
-      </c>
-      <c r="E49" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="2">
-        <v>335</v>
-      </c>
-      <c r="E50" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D51" s="2">
-        <v>338</v>
-      </c>
-      <c r="E51" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D52" s="2">
-        <v>344</v>
-      </c>
-      <c r="E52" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" s="2">
-        <v>346</v>
-      </c>
-      <c r="E53" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D54" s="2">
-        <v>328</v>
-      </c>
-      <c r="E54" s="2">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D55" s="2">
-        <v>330</v>
-      </c>
-      <c r="E55" s="2">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="2">
-        <v>334</v>
-      </c>
-      <c r="E56" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D57" s="2">
-        <v>334</v>
-      </c>
-      <c r="E57" s="2">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="2">
-        <v>349</v>
-      </c>
-      <c r="E58" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="2">
-        <v>350</v>
-      </c>
-      <c r="E59" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="2">
-        <v>350</v>
-      </c>
-      <c r="E60" s="2">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D61" s="2">
-        <v>345</v>
-      </c>
-      <c r="E61" s="2">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D62" s="2">
-        <v>352</v>
-      </c>
-      <c r="E62" s="2">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" s="2">
-        <v>357</v>
-      </c>
-      <c r="E63" s="2">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D64" s="2">
-        <v>360</v>
-      </c>
-      <c r="E64" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D65" s="2">
-        <v>351</v>
-      </c>
-      <c r="E65" s="2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D66" s="2">
-        <v>355</v>
-      </c>
-      <c r="E66" s="2">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D67" s="2">
-        <v>359</v>
-      </c>
-      <c r="E67" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D68" s="2">
-        <v>365</v>
-      </c>
-      <c r="E68" s="2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D69" s="2">
-        <v>385</v>
-      </c>
-      <c r="E69" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="D70" s="2">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="E70" s="2">
-        <v>394</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="D71" s="2">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="E71" s="2">
-        <v>394</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="D72" s="2">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="E72" s="2">
-        <v>226</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="E73" s="2">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="D74" s="2">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="E74" s="2">
-        <v>237</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="D75" s="2">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="E75" s="2">
-        <v>239</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="D76" s="2">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="E76" s="2">
-        <v>249</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="D77" s="2">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="E77" s="2">
-        <v>254</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="D78" s="2">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="E78" s="2">
-        <v>256</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="D79" s="2">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="E79" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="D80" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="E80" s="2">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="D81" s="2">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="E81" s="2">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="D82" s="2">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="E82" s="2">
-        <v>223</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="D83" s="2">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="E83" s="2">
-        <v>237</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="D84" s="2">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="E84" s="2">
-        <v>257</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="D85" s="2">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="E85" s="2">
-        <v>263</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="D86" s="2">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="E86" s="2">
-        <v>263</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="D87" s="2">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="E87" s="2">
-        <v>229</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="D88" s="2">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="E88" s="2">
-        <v>231</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="D89" s="2">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="E89" s="2">
-        <v>238</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="D90" s="2">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="E90" s="2">
-        <v>251</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="D91" s="2">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="E91" s="2">
-        <v>252</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="D92" s="2">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="E92" s="2">
-        <v>252</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="D93" s="2">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="E93" s="2">
-        <v>253</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="D94" s="2">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="E94" s="2">
-        <v>256</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="D95" s="2">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="E95" s="2">
-        <v>258</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D96" s="2">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="E96" s="2">
-        <v>264</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="D97" s="2">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E97" s="2">
-        <v>265</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>234</v>
+        <v>337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>244</v>
       </c>
       <c r="D98" s="2">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="E98" s="2">
-        <v>266</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>234</v>
+        <v>338</v>
+      </c>
+      <c r="C99" t="s">
+        <v>244</v>
       </c>
       <c r="D99" s="2">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="E99" s="2">
-        <v>269</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="D100" s="2">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="E100" s="2">
-        <v>271</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="D101" s="2">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="E101" s="2">
-        <v>274</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="D102" s="2">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="E102" s="2">
-        <v>276</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="D103" s="2">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="E103" s="2">
-        <v>276</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="D104" s="2">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E104" s="2">
-        <v>280</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="2">
+        <v>365</v>
+      </c>
+      <c r="E105" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D106" s="2">
+        <v>385</v>
+      </c>
+      <c r="E106" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="2">
+        <v>386</v>
+      </c>
+      <c r="E107" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" s="2">
+        <v>394</v>
+      </c>
+      <c r="E108" s="2">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4725,7 +4798,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50704495-1D42-4AC0-AE23-D5BE1621E556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AA6FC-641A-4611-8D1F-553B95DCF47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="381">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1680,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N97" sqref="N97"/>
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3263,13 +3263,13 @@
         <v>281</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D93" s="2">
         <v>349</v>
       </c>
       <c r="E93" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3277,16 +3277,16 @@
         <v>328</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D94" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E94" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3294,50 +3294,50 @@
         <v>328</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D95" s="2">
+        <v>349</v>
+      </c>
+      <c r="E95" s="2">
         <v>350</v>
-      </c>
-      <c r="E95" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="D96" s="2">
         <v>350</v>
       </c>
       <c r="E96" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="D97" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E97" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3345,16 +3345,16 @@
         <v>334</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C98" t="s">
-        <v>244</v>
+        <v>335</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D98" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E98" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3362,16 +3362,16 @@
         <v>334</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C99" t="s">
         <v>244</v>
       </c>
       <c r="D99" s="2">
+        <v>352</v>
+      </c>
+      <c r="E99" s="2">
         <v>357</v>
-      </c>
-      <c r="E99" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3379,33 +3379,33 @@
         <v>334</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="C100" t="s">
+        <v>244</v>
       </c>
       <c r="D100" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E100" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D101" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E101" s="2">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3413,16 +3413,16 @@
         <v>341</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D102" s="2">
+        <v>351</v>
+      </c>
+      <c r="E102" s="2">
         <v>355</v>
-      </c>
-      <c r="E102" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3430,16 +3430,16 @@
         <v>341</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D103" s="2">
+        <v>355</v>
+      </c>
+      <c r="E103" s="2">
         <v>357</v>
-      </c>
-      <c r="E103" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3447,16 +3447,16 @@
         <v>341</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D104" s="2">
+        <v>357</v>
+      </c>
+      <c r="E104" s="2">
         <v>359</v>
-      </c>
-      <c r="E104" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3464,16 +3464,16 @@
         <v>341</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D105" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E105" s="2">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3481,16 +3481,16 @@
         <v>341</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D106" s="2">
+        <v>365</v>
+      </c>
+      <c r="E106" s="2">
         <v>385</v>
-      </c>
-      <c r="E106" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,16 +3498,16 @@
         <v>341</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D107" s="2">
+        <v>385</v>
+      </c>
+      <c r="E107" s="2">
         <v>386</v>
-      </c>
-      <c r="E107" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3515,15 +3515,32 @@
         <v>341</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D108" s="2">
+        <v>386</v>
+      </c>
+      <c r="E108" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D109" s="2">
         <v>394</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E109" s="2">
         <v>394</v>
       </c>
     </row>

--- a/emperors.xlsx
+++ b/emperors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang Wei\Desktop\emperor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AA6FC-641A-4611-8D1F-553B95DCF47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6A527-53CE-4C45-85F4-974783CFF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年号" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="382">
   <si>
     <t>朝代</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1317,6 +1317,10 @@
   </si>
   <si>
     <t>永宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成汉昭文帝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1682,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A660BC-9A57-4B42-8BBC-AD1A3FF8A5CB}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4814,11 +4818,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90200AAB-AC5C-4994-A82A-CDE63709D966}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5305,6 +5312,9 @@
       </c>
       <c r="B26" t="s">
         <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
